--- a/02_Formulas_Functions/8_Text_Functions.xlsx
+++ b/02_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91771\Desktop\data-analytics\excel\02_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F5FEB-D4A0-4E30-9E0C-8AA9F558B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD3C04-27FC-4BB2-A4B8-AF670E0B1CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -24,30 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1784,33 +1773,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="174" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" customWidth="1"/>
-    <col min="10" max="10" width="34.73046875" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="34.77734375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.46484375" customWidth="1"/>
-    <col min="14" max="14" width="8.86328125" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
     <col min="17" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1858,7 +1847,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1882,6 +1871,22 @@
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,F2,G2)</f>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+      <c r="L2" t="str">
+        <f>LEFT(B2,FIND(" ",B2)-1)</f>
+        <v>Pam</v>
+      </c>
+      <c r="M2" t="str">
+        <f>RIGHT(B2,LEN(B2)-FIND(" ",B2))</f>
+        <v>Beesly</v>
+      </c>
+      <c r="O2" t="str">
+        <f>RIGHT(A2,7)</f>
+        <v>0123548</v>
       </c>
       <c r="Q2">
         <f>FIND(",", G2)+LEN(", ")</f>
@@ -1895,8 +1900,20 @@
         <f>MID(G2,Q2,R2-Q2)</f>
         <v>CA</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T2">
+        <f>FIND(",",G2)+1</f>
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <f>FIND(",",G2,T2)</f>
+        <v>13</v>
+      </c>
+      <c r="V2" t="str">
+        <f>MID(G2,T2,U2-T2)</f>
+        <v xml:space="preserve"> CA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1921,20 +1938,48 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="0">_xlfn.TEXTJOIN(" ",TRUE,F3,G3)</f>
+        <v>203 Birch St Chicago, IL, 60601</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L21" si="1">LEFT(B3,FIND(" ",B3)-1)</f>
+        <v>Michael</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M21" si="2">RIGHT(B3,LEN(B3)-FIND(" ",B3))</f>
+        <v>Scott</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O22" si="3">RIGHT(A3,7)</f>
+        <v>0123549</v>
+      </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q21" si="0">FIND(",", G3)+LEN(", ")</f>
+        <f t="shared" ref="Q3:Q21" si="4">FIND(",", G3)+LEN(", ")</f>
         <v>10</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R21" si="1">FIND(",",G3,Q3)</f>
+        <f t="shared" ref="R3:R21" si="5">FIND(",",G3,Q3)</f>
         <v>12</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S21" si="2">MID(G3,Q3,R3-Q3)</f>
+        <f t="shared" ref="S3:S21" si="6">MID(G3,Q3,R3-Q3)</f>
         <v>IL</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T3">
+        <f t="shared" ref="T3:T21" si="7">FIND(",",G3)+1</f>
+        <v>9</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U21" si="8">FIND(",",G3,T3)</f>
+        <v>12</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V21" si="9">MID(G3,T3,U3-T3)</f>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1959,20 +2004,48 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>Malone</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="3"/>
+        <v>0123550</v>
+      </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T4">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1997,20 +2070,48 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pam</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>Beesly</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="3"/>
+        <v>0123551</v>
+      </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>CA</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> CA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2035,20 +2136,48 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>Jim</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>Halpert</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v>0123552</v>
+      </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> PA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2073,20 +2202,48 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>Ryan</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>Howard</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
+        <v>0123553</v>
+      </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> PA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2111,20 +2268,48 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>Malone</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>0123554</v>
+      </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2149,20 +2334,48 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>Ryan</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>Howard</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>0123555</v>
+      </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> PA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2187,20 +2400,48 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>Stanley</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>Hudson</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v>0123556</v>
+      </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2225,20 +2466,48 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Los Angeles, CA, 90001</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>Angela</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>Martin</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>0123557</v>
+      </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>CA</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> CA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2263,20 +2532,48 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St San Diego, CA, 92101</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>Dwight</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>Schrute</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v>0123558</v>
+      </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>CA</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> CA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2301,20 +2598,48 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>202 Birch St Chicago, IL, 60601</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>Oscar</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>Martinez</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v>0123559</v>
+      </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2339,20 +2664,48 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>Ryan</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>Howard</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="3"/>
+        <v>0123560</v>
+      </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> PA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2377,20 +2730,48 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>Phyllis</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>Vance</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="3"/>
+        <v>0123561</v>
+      </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2415,20 +2796,48 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak St Chicago, IL, 60601</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>Meredith</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>Palmer</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="3"/>
+        <v>0123562</v>
+      </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2453,20 +2862,48 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>203 Birch St Chicago, IL, 60602</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>Michael</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>Scott</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
+        <v>0123563</v>
+      </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> IL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2491,20 +2928,48 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>Jim</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>Halpert</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="3"/>
+        <v>0123564</v>
+      </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> PA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2529,20 +2994,48 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak St New York, NY, 10001</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>Kelly</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>Kapoor</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="3"/>
+        <v>0123565</v>
+      </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NY</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> NY</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2567,20 +3060,48 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>Jim</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>Halpert</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="3"/>
+        <v>0123566</v>
+      </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="T20">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> PA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2605,17 +3126,51 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St New York, NY, 10001</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>Jim</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>Halpert</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v>0123567</v>
+      </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NY</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> NY</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2637,21 +3192,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2680,7 +3235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2710,7 +3265,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2740,7 +3295,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -2770,7 +3325,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2800,7 +3355,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2830,7 +3385,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2860,7 +3415,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2890,7 +3445,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +3475,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2950,7 +3505,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2980,7 +3535,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +3565,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3040,7 +3595,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3070,7 +3625,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3100,7 +3655,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3130,7 +3685,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -3160,7 +3715,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3190,7 +3745,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -3220,7 +3775,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -3250,7 +3805,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3291,23 +3846,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3904,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3394,7 +3949,7 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -3438,7 +3993,7 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3482,7 +4037,7 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +4081,7 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3570,7 +4125,7 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -3611,7 +4166,7 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3652,7 +4207,7 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3693,7 +4248,7 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3734,7 +4289,7 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3775,7 +4330,7 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3816,7 +4371,7 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3857,7 +4412,7 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3898,7 +4453,7 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3939,7 +4494,7 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3980,7 +4535,7 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4021,7 +4576,7 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4062,7 +4617,7 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +4658,7 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4144,7 +4699,7 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4196,21 +4751,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4241,7 +4796,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -4279,7 +4834,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -4317,7 +4872,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -4355,7 +4910,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4393,7 +4948,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4431,7 +4986,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4469,7 +5024,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4507,7 +5062,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4545,7 +5100,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4583,7 +5138,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -4621,7 +5176,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -4659,7 +5214,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -4697,7 +5252,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -4735,7 +5290,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -4773,7 +5328,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4811,7 +5366,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4849,7 +5404,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4887,7 +5442,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4925,7 +5480,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4963,7 +5518,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -5017,30 +5572,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,Data!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3,", ")</f>
         <v>Kafka</v>
@@ -5268,7 +5823,7 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -5280,7 +5835,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
@@ -5290,7 +5845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
@@ -5299,7 +5854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
@@ -5308,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
@@ -5317,7 +5872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
@@ -5326,7 +5881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
@@ -5335,7 +5890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
@@ -5344,7 +5899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
@@ -5353,7 +5908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
@@ -5362,7 +5917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
@@ -5371,7 +5926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
@@ -5380,7 +5935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
@@ -5389,7 +5944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
@@ -5398,7 +5953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
@@ -5407,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
@@ -5416,7 +5971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
@@ -5425,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
